--- a/cp2/stiahailo_fb-13_klymenko_fb-13_cp2/alg2.xlsx
+++ b/cp2/stiahailo_fb-13_klymenko_fb-13_cp2/alg2.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Average Reference value</t>
+          <t>Reference value</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -458,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05622513537615392</v>
+        <v>0.0411776346835944</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03405516004156545</v>
+        <v>0.03411947792986381</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05545497668937862</v>
+        <v>0.03953661841043674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03408325376743079</v>
+        <v>0.03411947792986381</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05640389235600275</v>
+        <v>0.03623327396447002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03409090308645597</v>
+        <v>0.03411947792986381</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05546800722403106</v>
+        <v>0.03753938895739142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03412309113086957</v>
+        <v>0.03411947792986381</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05603355770168764</v>
+        <v>0.03516767898190011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03397597036892617</v>
+        <v>0.03411947792986381</v>
       </c>
     </row>
   </sheetData>
